--- a/data/long_bre/P23_11-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_11-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,23%</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>-15,83%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80,99%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>155,62%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 6,07</t>
+          <t>-10,12; 5,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 9,09</t>
+          <t>-3,07; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-75,03; 131,5</t>
+          <t>-2,27; 14,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 685,28</t>
+          <t>-70,86; 132,99</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 627,45</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-47,02; —</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-1,96%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-6,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-6,15%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 9,99</t>
+          <t>-11,73; 11,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 0,25</t>
+          <t>-14,68; 5,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 13,33</t>
+          <t>-18,43; 9,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -0,15</t>
+          <t>-13,78; 14,72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,73; 6,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 12,94</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>118,87%</t>
+          <t>39,62%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41,8%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-8,63%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 11,26</t>
+          <t>-6,3; 11,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 11,02</t>
+          <t>-6,62; 9,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 298,95</t>
+          <t>-14,07; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 827,81</t>
+          <t>-52,38; 286,81</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-64,09; 444,73</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-64,95; 159,52</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>115,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 20,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 372,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 326,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,83</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>109,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,38; -5,03</t>
+          <t>1,27; 19,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 5,8</t>
+          <t>-1,37; 10,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,42; -6,11</t>
+          <t>-18,51; 14,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 7,67</t>
+          <t>7,35; 360,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 351,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-64,57; 259,9</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>-15,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>-18,66%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-7,34%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 12,93</t>
+          <t>-26,9; -5,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 10,26</t>
+          <t>-16,38; 6,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,47; 372,07</t>
+          <t>-11,74; 34,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 95,71</t>
+          <t>-30,61; -6,86</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 9,47</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 87,09</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>100,77%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-44,86%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 7,36</t>
+          <t>-0,34; 13,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 12,85</t>
+          <t>-11,26; 10,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 49,62</t>
+          <t>-40,63; 4,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 196,7</t>
+          <t>-16,23; 411,91</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-47,25; 97,55</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-82,52; 49,88</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,17%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,66; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -5,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>63,66%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 18,06</t>
+          <t>-19,44; 8,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 13,11</t>
+          <t>-1,46; 12,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 260,14</t>
+          <t>-4,33; 10,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 154,99</t>
+          <t>-54,2; 59,49</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; 197,62</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-26,13; 122,61</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-9,69</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-13,66</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>-14,16%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-17,42%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-2,19%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 8,26</t>
+          <t>-21,02; 6,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 11,07</t>
+          <t>-22,07; -4,71</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 76,7</t>
+          <t>-11,92; 8,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 118,78</t>
+          <t>-27,81; 8,38</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; -6,4</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 13,07</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>10,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-18,55</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-24,64%</t>
+          <t>99,96%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>62,79%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-8,71%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -0,5</t>
+          <t>2,13; 17,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-26,91; -8,41</t>
+          <t>1,09; 13,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -0,75</t>
+          <t>-9,19; 5,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-34,0; -12,93</t>
+          <t>12,56; 265,08</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 166,7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-41,89; 47,01</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>129,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,61; 19,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,35; 22,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,71; 198,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>41,16; 268,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>22,59%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 10,35</t>
+          <t>-11,06; 7,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 13,47</t>
+          <t>-6,46; 9,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 94,88</t>
+          <t>-3,36; 12,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 187,57</t>
+          <t>-47,97; 66,96</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-34,78; 102,28</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-17,28; 128,41</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-18,03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>-18,92%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-24,07%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-5,92%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 9,2</t>
+          <t>-23,32; -1,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -3,18</t>
+          <t>-26,3; -7,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 13,8</t>
+          <t>-14,98; 9,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,3; -4,3</t>
+          <t>-31,14; -2,07</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-33,19; -10,77</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-22,4; 17,11</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>102,07%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>131,41%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-5,97%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 9,87</t>
+          <t>5,77; 21,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 14,17</t>
+          <t>7,74; 22,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 117,57</t>
+          <t>-16,58; 8,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 184,66</t>
+          <t>28,63; 230,18</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>51,39; 290,62</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-47,73; 49,34</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 15,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 147,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 52,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>60,32%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>139,83%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 17,41</t>
+          <t>-8,3; 9,95</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 14,84</t>
+          <t>0,01; 13,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 29,56</t>
+          <t>2,51; 18,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 22,13</t>
+          <t>-38,92; 89,7</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 195,48</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 401,86</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-12,75</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-16,49%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 8,08</t>
+          <t>-15,02; 7,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 7,69</t>
+          <t>-22,74; -2,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 151,09</t>
+          <t>-21,12; 1,86</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-52,05; 109,55</t>
+          <t>-19,32; 12,06</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-27,69; -3,64</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-26,9; 2,51</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>52,74%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,25</t>
+          <t>-5,55; 12,25</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,99</t>
+          <t>-2,11; 14,31</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 50,49</t>
+          <t>-9,69; 7,91</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>7,97; 89,99</t>
+          <t>-36,37; 133,97</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 175,37</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-49,99; 70,8</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -7,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-23,64%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>122,2%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,49</t>
+          <t>-12,47; 15,36</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,89</t>
+          <t>-11,58; 4,36</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>26,34; 110,39</t>
+          <t>-3,31; 17,92</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>16,51; 94,12</t>
+          <t>-49,2; 159,22</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-66,76; 60,68</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-54,08; 967,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-9,19</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-11,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 14,16</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 14,7</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-24,3; 7,9</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 24,17</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 22,24</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-28,32; 11,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-5,87%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 8,04</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 7,88</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 13,98</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-57,21; 136,6</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-50,68; 90,99</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-56,82; 151,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 6,91</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 6,46</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 9,37</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 60,15</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 83,77</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 109,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-8,77</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-9,37</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; -3,78</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; -5,17</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 5,59</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-17,77; -5,21</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; -6,79</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 8,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>64,79%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>46,78%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-14,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 9,97</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 8,92</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 2,27</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>27,78; 118,03</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 91,53</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 15,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
